--- a/data/trans_orig/P79A_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3130</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9062</v>
+        <v>7979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005684246831041793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001332827641341211</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01645779242138342</v>
+        <v>0.01449052218203429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -762,19 +762,19 @@
         <v>4043</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1289</v>
+        <v>1040</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11001</v>
+        <v>10619</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.008278459442876959</v>
+        <v>0.008278459442876957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002638841267587438</v>
+        <v>0.002128694782522509</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02252392154203377</v>
+        <v>0.02174249303553318</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>7173</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3104</v>
+        <v>3088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15192</v>
+        <v>15672</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.006903694502251042</v>
+        <v>0.00690369450225104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002987000397491115</v>
+        <v>0.002971617622217319</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01462109318611397</v>
+        <v>0.01508372907761589</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>547488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>541556</v>
+        <v>542639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>549884</v>
+        <v>550618</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9943157531689583</v>
+        <v>0.994315753168958</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9835422075786168</v>
+        <v>0.9855094778179657</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986671723586589</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>682</v>
@@ -833,19 +833,19 @@
         <v>484368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>477410</v>
+        <v>477792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>487122</v>
+        <v>487371</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9917215405571231</v>
+        <v>0.991721540557123</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9774760784579661</v>
+        <v>0.978257506964467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9973611587324126</v>
+        <v>0.9978713052174775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1233</v>
@@ -854,19 +854,19 @@
         <v>1031856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1023837</v>
+        <v>1023357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1035925</v>
+        <v>1035941</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9930963054977491</v>
+        <v>0.993096305497749</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.985378906813886</v>
+        <v>0.9849162709223839</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9970129996025088</v>
+        <v>0.9970283823777825</v>
       </c>
     </row>
     <row r="6">
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10956</v>
+        <v>9548</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.005576479563689003</v>
+        <v>0.005576479563689002</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02267333489058293</v>
+        <v>0.01975915202895241</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>5401</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2432</v>
+        <v>2134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10936</v>
+        <v>9942</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01276323133808003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005747262953583017</v>
+        <v>0.005044259049309276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02584446083487654</v>
+        <v>0.0234953490248801</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1000,19 +1000,19 @@
         <v>8095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3954</v>
+        <v>3927</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15319</v>
+        <v>15705</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008931702025290355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004362287217402468</v>
+        <v>0.004332395519736365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01690213891813626</v>
+        <v>0.0173278218389354</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>480517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472256</v>
+        <v>473664</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>483212</v>
@@ -1038,7 +1038,7 @@
         <v>0.994423520436311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9773266651094163</v>
+        <v>0.9802408479710475</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>417742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>412207</v>
+        <v>413201</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>420711</v>
+        <v>421009</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9872367686619199</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9741555391651235</v>
+        <v>0.97650465097512</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.994252737046417</v>
+        <v>0.9949557409506907</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1061</v>
@@ -1071,19 +1071,19 @@
         <v>898260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>891036</v>
+        <v>890650</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>902401</v>
+        <v>902428</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9910682979747097</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9830978610818639</v>
+        <v>0.9826721781610646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9956377127825976</v>
+        <v>0.9956676044802636</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>12003</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5989</v>
+        <v>6325</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21783</v>
+        <v>21330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02545094751147174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01269795236764548</v>
+        <v>0.01341147020319013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04618816297535864</v>
+        <v>0.04522890232065315</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1196,7 +1196,7 @@
         <v>2089</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>5558</v>
@@ -1205,10 +1205,10 @@
         <v>0.01114117673935842</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003184903999501359</v>
+        <v>0.003178248489086242</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02964366279766068</v>
+        <v>0.02964404169064553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1217,19 +1217,19 @@
         <v>14092</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8073</v>
+        <v>7739</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23542</v>
+        <v>25554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02138023512841897</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0122477042825018</v>
+        <v>0.01174230547320224</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03571831729804129</v>
+        <v>0.03876989634110044</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>459609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>449829</v>
+        <v>450282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465623</v>
+        <v>465287</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9745490524885285</v>
+        <v>0.9745490524885282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.953811837024642</v>
+        <v>0.9547710976793472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9873020476323545</v>
+        <v>0.9865885297968099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -1270,16 +1270,16 @@
         <v>181939</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186900</v>
+        <v>186901</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9888588232606417</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9703563372023395</v>
+        <v>0.9703559583093552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9968150960004984</v>
+        <v>0.9968217515109139</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>763</v>
@@ -1288,19 +1288,19 @@
         <v>645017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635567</v>
+        <v>633555</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651036</v>
+        <v>651370</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9786197648715811</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9642816827019582</v>
+        <v>0.9612301036588994</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9877522957174981</v>
+        <v>0.9882576945267978</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>37956</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25297</v>
+        <v>25440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56697</v>
+        <v>58652</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03353441294556549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02235044596325128</v>
+        <v>0.02247695742770668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05009224762938761</v>
+        <v>0.05181986512424108</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1413,19 +1413,19 @@
         <v>13419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8157</v>
+        <v>8222</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21480</v>
+        <v>21016</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01558102533470362</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009471400590080491</v>
+        <v>0.009547531582272966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02494146144577233</v>
+        <v>0.02440336293834923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -1434,19 +1434,19 @@
         <v>51374</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36415</v>
+        <v>36085</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71495</v>
+        <v>70314</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02577663977533513</v>
+        <v>0.02577663977533514</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01827088053627195</v>
+        <v>0.01810537689301436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03587219270037255</v>
+        <v>0.03527932987247362</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1093887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1075146</v>
+        <v>1073191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1106546</v>
+        <v>1106403</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9664655870544343</v>
+        <v>0.9664655870544345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9499077523706123</v>
+        <v>0.9481801348757589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9776495540367487</v>
+        <v>0.9775230425722933</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1212</v>
@@ -1484,19 +1484,19 @@
         <v>847792</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>839731</v>
+        <v>840195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>853054</v>
+        <v>852989</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9844189746652965</v>
+        <v>0.9844189746652964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9750585385542276</v>
+        <v>0.9755966370616507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9905285994099194</v>
+        <v>0.9904524684177269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2302</v>
@@ -1505,19 +1505,19 @@
         <v>1941680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1921559</v>
+        <v>1922740</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1956639</v>
+        <v>1956969</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9742233602246648</v>
+        <v>0.974223360224665</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9641278072996278</v>
+        <v>0.9647206701275265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9817291194637282</v>
+        <v>0.9818946231069857</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>27030</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17564</v>
+        <v>16583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43841</v>
+        <v>42409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04759080624692706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03092417570203135</v>
+        <v>0.02919737728185535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07718922763379325</v>
+        <v>0.07466784237709989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1630,19 +1630,19 @@
         <v>29118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20523</v>
+        <v>19540</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43944</v>
+        <v>42724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0350462979079553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02470174312670017</v>
+        <v>0.02351863726915972</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05289066325800567</v>
+        <v>0.05142226902061044</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -1651,19 +1651,19 @@
         <v>56148</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41725</v>
+        <v>43151</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78200</v>
+        <v>78874</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04013977424083465</v>
+        <v>0.04013977424083464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02982888013420033</v>
+        <v>0.0308484482095869</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0559044342297446</v>
+        <v>0.0563865932021799</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>540934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>524123</v>
+        <v>525555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>550400</v>
+        <v>551381</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.952409193753073</v>
+        <v>0.9524091937530729</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.922810772366207</v>
+        <v>0.9253321576229001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9690758242979689</v>
+        <v>0.9708026227181447</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1254</v>
@@ -1701,19 +1701,19 @@
         <v>801732</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>786906</v>
+        <v>788126</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>810327</v>
+        <v>811310</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9649537020920447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9471093367419943</v>
+        <v>0.9485777309793882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9752982568732997</v>
+        <v>0.9764813627308403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1779</v>
@@ -1722,19 +1722,19 @@
         <v>1342666</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1320614</v>
+        <v>1319940</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1357089</v>
+        <v>1355663</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9598602257591654</v>
+        <v>0.9598602257591652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.944095565770255</v>
+        <v>0.9436134067978204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9701711198657996</v>
+        <v>0.9691515517904132</v>
       </c>
     </row>
     <row r="18">
@@ -1839,19 +1839,19 @@
         <v>25595</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16256</v>
+        <v>15857</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39051</v>
+        <v>39174</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03031526657169512</v>
+        <v>0.03031526657169513</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0192542871091117</v>
+        <v>0.01878136304426368</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04625335656428105</v>
+        <v>0.04639872181328249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1860,19 +1860,19 @@
         <v>25595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16433</v>
+        <v>15301</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40713</v>
+        <v>38923</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02366564629581023</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0151947134652944</v>
+        <v>0.01414798354029306</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03764462703724925</v>
+        <v>0.03598997871682121</v>
       </c>
     </row>
     <row r="20">
@@ -1902,19 +1902,19 @@
         <v>818686</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>805230</v>
+        <v>805107</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>828025</v>
+        <v>828424</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9696847334283047</v>
+        <v>0.9696847334283051</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9537466434357191</v>
+        <v>0.9536012781867179</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9807457128908886</v>
+        <v>0.9812186369557364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1247</v>
@@ -1923,19 +1923,19 @@
         <v>1055914</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1040796</v>
+        <v>1042586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1065076</v>
+        <v>1066208</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.97633435370419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9623553729627506</v>
+        <v>0.9640100212831787</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9848052865347057</v>
+        <v>0.985852016459707</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>82813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62999</v>
+        <v>63735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110052</v>
+        <v>108401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02405622206640683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01830037747327288</v>
+        <v>0.01851421431378744</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03196899008713544</v>
+        <v>0.03148929245842235</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>93</v>
@@ -2048,19 +2048,19 @@
         <v>79664</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63503</v>
+        <v>64671</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>100647</v>
+        <v>99427</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.021913523337603</v>
+        <v>0.02191352333760301</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01746786618616557</v>
+        <v>0.01778913658108318</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02768542629115902</v>
+        <v>0.02734982993306909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>159</v>
@@ -2069,19 +2069,19 @@
         <v>162477</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136345</v>
+        <v>136269</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>199270</v>
+        <v>193228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02295567158267809</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01926352484763398</v>
+        <v>0.01925289719266497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02815390539954071</v>
+        <v>0.02730024173828365</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>3359663</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3332424</v>
+        <v>3334075</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3379477</v>
+        <v>3378741</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9759437779335933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9680310099128645</v>
+        <v>0.9685107075415776</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9816996225267272</v>
+        <v>0.9814857856862126</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5151</v>
@@ -2119,19 +2119,19 @@
         <v>3555729</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3534746</v>
+        <v>3535966</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3571890</v>
+        <v>3570722</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9780864766623971</v>
+        <v>0.978086476662397</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9723145737088408</v>
+        <v>0.9726501700669309</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9825321338138345</v>
+        <v>0.9822108634189169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8385</v>
@@ -2140,19 +2140,19 @@
         <v>6915392</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6878599</v>
+        <v>6884641</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6941524</v>
+        <v>6941600</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9770443284173218</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.971846094600459</v>
+        <v>0.9726997582617163</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9807364751523654</v>
+        <v>0.9807471028073351</v>
       </c>
     </row>
     <row r="24">
